--- a/To Be Modeled/Markel Group.xlsx
+++ b/To Be Modeled/Markel Group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF85351B-340B-1D4E-A12F-577C355ED173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9818C0D2-D14B-5542-8A7D-C638A72B0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -966,15 +966,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -996,9 +987,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1013,6 +1001,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2400,8 +2400,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2410,21 +2409,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2434,24 +2435,13 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0480000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3197,10 +3187,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ10" sqref="AQ10"/>
+      <selection pane="bottomRight" activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13713,10 +13703,10 @@
       <c r="AM83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT83" s="47" t="s">
+      <c r="AT83" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="AU83" s="48"/>
+      <c r="AU83" s="66"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13836,10 +13826,10 @@
       <c r="AM84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AT84" s="49" t="s">
+      <c r="AT84" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="AU84" s="49"/>
+      <c r="AU84" s="67"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14337,10 +14327,10 @@
       <c r="AM88" s="1">
         <v>-254712000</v>
       </c>
-      <c r="AT88" s="50" t="s">
+      <c r="AT88" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="AU88" s="51">
+      <c r="AU88" s="48">
         <f>AU85/(AU86+AU87)</f>
         <v>4.7777710899304007E-2</v>
       </c>
@@ -14753,10 +14743,10 @@
       <c r="AM91" s="1">
         <v>-2112066000</v>
       </c>
-      <c r="AT91" s="50" t="s">
+      <c r="AT91" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AU91" s="51">
+      <c r="AU91" s="48">
         <f>AU89/AU90</f>
         <v>-0.32005052439212839</v>
       </c>
@@ -14879,10 +14869,10 @@
       <c r="AM92" s="1">
         <v>1394345000</v>
       </c>
-      <c r="AT92" s="50" t="s">
+      <c r="AT92" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="AU92" s="51">
+      <c r="AU92" s="48">
         <f>AU88*(1-AU91)</f>
         <v>6.3068992326881762E-2</v>
       </c>
@@ -15005,10 +14995,10 @@
       <c r="AM93" s="1">
         <v>-1141151000</v>
       </c>
-      <c r="AT93" s="49" t="s">
+      <c r="AT93" s="67" t="s">
         <v>142</v>
       </c>
-      <c r="AU93" s="49"/>
+      <c r="AU93" s="67"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15131,9 +15121,9 @@
       <c r="AT94" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AU94" s="52">
+      <c r="AU94" s="49">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15254,10 +15244,10 @@
       <c r="AM95" s="1">
         <v>-1255005000</v>
       </c>
-      <c r="AT95" s="53" t="s">
+      <c r="AT95" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="AU95" s="54" cm="1">
+      <c r="AU95" s="51" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
         <v>0.77910000000000001</v>
       </c>
@@ -15383,7 +15373,7 @@
       <c r="AT96" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="AU96" s="52">
+      <c r="AU96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15505,12 +15495,12 @@
       <c r="AM97" s="1">
         <v>-290796000</v>
       </c>
-      <c r="AT97" s="50" t="s">
+      <c r="AT97" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="AU97" s="51">
+      <c r="AU97" s="48">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>7.4386432000000002E-2</v>
+        <v>7.4086008000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15631,10 +15621,10 @@
       <c r="AM98" s="1">
         <v>-36000000</v>
       </c>
-      <c r="AT98" s="49" t="s">
+      <c r="AT98" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="AU98" s="49"/>
+      <c r="AU98" s="67"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15880,10 +15870,10 @@
       <c r="AM100" s="10">
         <v>-595311000</v>
       </c>
-      <c r="AT100" s="50" t="s">
+      <c r="AT100" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AU100" s="51">
+      <c r="AU100" s="48">
         <f>AU99/AU103</f>
         <v>0.18243160008089243</v>
       </c>
@@ -16006,10 +15996,10 @@
       <c r="AM101" s="1">
         <v>-103361000</v>
       </c>
-      <c r="AT101" s="53" t="s">
+      <c r="AT101" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AU101" s="55" cm="1">
+      <c r="AU101" s="52" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
         <v>18390440000</v>
       </c>
@@ -16132,10 +16122,10 @@
       <c r="AM102" s="10">
         <v>340566000</v>
       </c>
-      <c r="AT102" s="50" t="s">
+      <c r="AT102" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="AU102" s="51">
+      <c r="AU102" s="48">
         <f>AU101/AU103</f>
         <v>0.81756839991910757</v>
       </c>
@@ -16258,10 +16248,10 @@
       <c r="AM103" s="1">
         <v>4880947000</v>
       </c>
-      <c r="AT103" s="50" t="s">
+      <c r="AT103" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="AU103" s="56">
+      <c r="AU103" s="53">
         <f>AU99+AU101</f>
         <v>22494069000</v>
       </c>
@@ -16384,10 +16374,10 @@
       <c r="AM104" s="11">
         <v>5221513000</v>
       </c>
-      <c r="AT104" s="49" t="s">
+      <c r="AT104" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="AU104" s="49"/>
+      <c r="AU104" s="67"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16573,7 +16563,7 @@
       </c>
       <c r="AU105" s="33">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>7.2321773371614065E-2</v>
+        <v>7.2076156202636771E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -16756,7 +16746,7 @@
       </c>
     </row>
     <row r="107" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
+      <c r="A107" s="64" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -16877,17 +16867,17 @@
       <c r="AO107" s="28"/>
       <c r="AP107" s="28"/>
       <c r="AQ107" s="28"/>
-      <c r="AR107" s="55">
+      <c r="AR107" s="52">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>40201367456.384323</v>
-      </c>
-      <c r="AS107" s="57" t="s">
+        <v>40411115805.870422</v>
+      </c>
+      <c r="AS107" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="AT107" s="58" t="s">
+      <c r="AT107" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AU107" s="59">
+      <c r="AU107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -16931,132 +16921,132 @@
       <c r="AK108" s="13"/>
       <c r="AL108" s="13"/>
       <c r="AM108" s="13"/>
-      <c r="AN108" s="55">
+      <c r="AN108" s="52">
         <f t="shared" ref="AN108:AQ108" si="14">AN107+AN106</f>
         <v>-21606000</v>
       </c>
-      <c r="AO108" s="55">
+      <c r="AO108" s="52">
         <f t="shared" si="14"/>
         <v>1687000000</v>
       </c>
-      <c r="AP108" s="55">
+      <c r="AP108" s="52">
         <f t="shared" si="14"/>
         <v>1640000000</v>
       </c>
-      <c r="AQ108" s="55">
+      <c r="AQ108" s="52">
         <f t="shared" si="14"/>
         <v>1742000000</v>
       </c>
-      <c r="AR108" s="55">
+      <c r="AR108" s="52">
         <f>AR107+AR106</f>
-        <v>42057367456.384323</v>
-      </c>
-      <c r="AS108" s="57" t="s">
+        <v>42267115805.870422</v>
+      </c>
+      <c r="AS108" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="AT108" s="60" t="s">
+      <c r="AT108" s="57" t="s">
         <v>156</v>
       </c>
       <c r="AU108" s="30">
         <f>AU105</f>
-        <v>7.2321773371614065E-2</v>
+        <v>7.2076156202636771E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="61" t="s">
+      <c r="AN109" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AO109" s="61"/>
+      <c r="AO109" s="68"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="62" t="s">
+      <c r="AN110" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="AO110" s="55">
+      <c r="AO110" s="52">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>33757606050.148144</v>
+        <v>33942496407.767971</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="62" t="s">
+      <c r="AN111" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="AO111" s="55">
+      <c r="AO111" s="52">
         <f>AM40</f>
         <v>27867000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="62" t="s">
+      <c r="AN112" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="AO112" s="55">
+      <c r="AO112" s="52">
         <f>AU99</f>
         <v>4103629000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="62" t="s">
+      <c r="AN113" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="AO113" s="55">
+      <c r="AO113" s="52">
         <f>AO110+AO111-AO112</f>
-        <v>29681844050.148144</v>
+        <v>29866734407.767971</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="62" t="s">
+      <c r="AN114" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="AO114" s="62">
+      <c r="AO114" s="58">
         <f>AM34*(1+(AS16*5))</f>
         <v>13595968.521043673</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="63" t="s">
+      <c r="AN115" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AO115" s="64">
+      <c r="AO115" s="60">
         <f>AO113/AO114</f>
-        <v>2183.1356849794811</v>
+        <v>2196.7345953721947</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="62" t="s">
+      <c r="AN116" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="AO116" s="65" cm="1">
+      <c r="AO116" s="61" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
         <v>1377.9</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="63" t="s">
+      <c r="AN117" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="AO117" s="66">
+      <c r="AO117" s="62">
         <f>AO115/AO116-1</f>
-        <v>0.58439341387581178</v>
+        <v>0.59426271527120589</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="63" t="s">
+      <c r="AN118" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="AO118" s="67" t="str">
+      <c r="AO118" s="63" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MKL" display="ROIC.AI | MKL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
